--- a/DM/databank/banking/deal_management/DealManagement_Test_39767_V1.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39767_V1.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="482">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1513,6 +1513,30 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8771437952","modelId":"2867223603","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7010014184","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7018600279","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7018600280","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7018600281","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4831803206","dealId":"8896413381","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8896413381","modelId":"4831803206","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2140014255","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4831803206","dealId":"8896413381","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2148600423","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2148600424","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2148600425","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"2140014255","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8896413381","modelId":"4831803206","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2140014256","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2148600423","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2148600424","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2148600425","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4831803206","dealId":"8896413381","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8896413381","modelId":"4831803206","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2140014257","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4831803206","dealId":"8896413381","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2148600429","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2148600430","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2148600431","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"2140014257","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8896413381","modelId":"4831803206","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2140014258","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2148600429","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2148600430","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2148600431","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -8451,10 +8475,10 @@
       </c>
       <c r="Z122" s="75"/>
       <c r="AU122" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AV122" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8517,10 +8541,10 @@
       </c>
       <c r="Z123" s="80"/>
       <c r="AU123" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AV123" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
@@ -8763,10 +8787,10 @@
       </c>
       <c r="Z128" s="75"/>
       <c r="AU128" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="AV128" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8831,10 +8855,10 @@
       </c>
       <c r="Z129" s="80"/>
       <c r="AU129" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AV129" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39767_V1.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39767_V1.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="498">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1537,6 +1537,54 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8896413381","modelId":"4831803206","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2140014258","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2148600429","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2148600430","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2148600431","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5933026497","dealId":"6669135537","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6669135537","modelId":"5933026497","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7920014451","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5933026497","dealId":"6669135537","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7928600850","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7928600851","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7928600852","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7920014451","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6669135537","modelId":"5933026497","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7920014452","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7928600850","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7928600851","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7928600852","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5933026497","dealId":"6669135537","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6669135537","modelId":"5933026497","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7920014453","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5933026497","dealId":"6669135537","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7928600856","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7928600857","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7928600858","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"7920014453","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6669135537","modelId":"5933026497","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7920014454","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7928600856","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7928600857","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7928600858","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7733033865","dealId":"8564821526","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8564821526","modelId":"7733033865","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1840014749","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7733033865","dealId":"8564821526","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1848601391","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1848601392","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1848601393","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1840014749","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8564821526","modelId":"7733033865","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1840014750","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1848601391","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1848601392","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1848601393","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7733033865","dealId":"8564821526","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8564821526","modelId":"7733033865","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1840014751","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7733033865","dealId":"8564821526","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1848601397","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1848601398","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1848601399","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1840014751","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8564821526","modelId":"7733033865","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1840014752","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1848601397","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1848601398","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1848601399","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -8475,10 +8523,10 @@
       </c>
       <c r="Z122" s="75"/>
       <c r="AU122" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="AV122" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8541,10 +8589,10 @@
       </c>
       <c r="Z123" s="80"/>
       <c r="AU123" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="AV123" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
@@ -8787,10 +8835,10 @@
       </c>
       <c r="Z128" s="75"/>
       <c r="AU128" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="AV128" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8855,10 +8903,10 @@
       </c>
       <c r="Z129" s="80"/>
       <c r="AU129" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="AV129" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">
